--- a/ig/ch-core/StructureDefinition-ch-core-condition.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-condition.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -860,7 +860,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1427,17 +1427,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="200.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="212.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1446,28 +1446,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="58.4765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="190.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-core/StructureDefinition-ch-core-condition.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,7 +379,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -631,7 +631,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -713,7 +713,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -760,7 +760,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -984,7 +984,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1055,7 +1055,7 @@
     <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1074,7 +1074,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.00390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
